--- a/UNAM/Febrero/Fichas técnicas/Listado_Instrumentos.xlsx
+++ b/UNAM/Febrero/Fichas técnicas/Listado_Instrumentos.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\RIMEDIE Dropbox\Ramsés Vázquez-Lira\AppCogDia - Consultorías\UNAM-SEP\2020\FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/outlier/CDM Dropbox/Daniela Arenas/AppCogDia - Consultorías/UNAM-SEP/2020/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9BAE51-B989-4C78-AA64-F438CF1949B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EA1A0-8F18-5D4B-A519-6F1FE2AC3DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B267232-03AA-4391-8957-A25E18EFF9BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3B267232-03AA-4391-8957-A25E18EFF9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="104">
   <si>
     <t>Nombre</t>
   </si>
@@ -126,15 +120,6 @@
     <t xml:space="preserve">Instrumento de valoración de conocimientos y aptitudes </t>
   </si>
   <si>
-    <t>EB-PH-IVCAD-DOC-MDC-Ini-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DOC-MDC-Pri-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DOC-MDC-Ing-2020</t>
-  </si>
-  <si>
     <t>EB-ADM-IVCAD-DTD-MDC-EFis-2021</t>
   </si>
   <si>
@@ -144,60 +129,6 @@
     <t>EB-PV-IVCAD-DIR-MDC-EEsp-2021</t>
   </si>
   <si>
-    <t>EB-PH-IVCAD-DOC-MDC-EEsp-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DOC-MDC-EFis-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Esp-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Mat-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Fis-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Qui-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Bio-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Geo-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-His-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Civ-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Tec-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-Art-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DSEC-MDC-TSec-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-TDOC-MDC-Pri-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-TDOC-MDC-Sec-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-ATP-MDC-Gen-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-DIR-MDC-Gen-2020</t>
-  </si>
-  <si>
-    <t>EB-PH-IVCAD-SUP-MDC-Gen-2020</t>
-  </si>
-  <si>
     <t>Cuestionario de habilidades socioemocionales</t>
   </si>
   <si>
@@ -252,18 +183,6 @@
     <t>Instrumento de conocimientos del modelo educativo</t>
   </si>
   <si>
-    <t>EMS-ADM-ICME-DOC-MDC-Exp-2020</t>
-  </si>
-  <si>
-    <t>EMS-ADM-ICME-DOC-MDC-Soc-2020</t>
-  </si>
-  <si>
-    <t>EMS-ADM-ICME-DOC-MDC-Hum-2020</t>
-  </si>
-  <si>
-    <t>EMS-ADM-ICME-DOC-MDC-Pro-2020</t>
-  </si>
-  <si>
     <t>Instrumento de valoración de aptitudes y habilidades</t>
   </si>
   <si>
@@ -276,52 +195,148 @@
     <t>EMS-PSER-IVPD-DOC-???-Gen-2020</t>
   </si>
   <si>
-    <t>EMS-ADM-ICME-DOC-MDC-MLCCHCD-2020</t>
+    <t>Objeto de evaluación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>GBIS</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J </t>
+  </si>
+  <si>
+    <t>EB-ADM-IACNEM-DTD-MDC-Gen-2021</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO SE REQUIERE</t>
+  </si>
+  <si>
+    <t>PENDIENTE A</t>
+  </si>
+  <si>
+    <t>Pendiente  B</t>
+  </si>
+  <si>
+    <t>Pendiente C</t>
+  </si>
+  <si>
+    <t>Pendiente D</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DOC-MDC-Ini-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DOC-MDC-Pri-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DOC-MDC-EFis-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DOC-MDC-EEsp-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DOC-MDC-Ing-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Esp-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Mat-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Fis-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Qui-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Bio-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Geo-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-His-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Civ-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Tec-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-Art-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DSEC-MDC-TSec-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-TDOC-MDC-Pri-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-TDOC-MDC-Sec-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-ATP-MDC-Gen-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-DIR-MDC-Gen-2020</t>
+  </si>
+  <si>
+    <t>EB-PH-IVCA-SUP-MDC-Gen-2020</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>EMS-ADM-ICME-DOC-MDC-Exp-2021</t>
+  </si>
+  <si>
+    <t>EMS-ADM-ICME-DOC-MDC-Soc-2021</t>
   </si>
   <si>
     <t>EMS-ADM-ICME-DOC-MDC-MLCCHCD-2021</t>
   </si>
   <si>
-    <t>Objeto de evaluación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>GBIS</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J </t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>EB-ADM-IACNEM-DTD-MDC-Gen-2021</t>
+    <t>EMS-ADM-ICME-DOC-MDC-Hum-2021</t>
+  </si>
+  <si>
+    <t>EMS-ADM-ICME-DOC-MDC-Pro-2021</t>
+  </si>
+  <si>
+    <t>A LA ESPERA DE ACTUALIZACIONES</t>
   </si>
 </sst>
 </file>
@@ -351,12 +366,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,13 +434,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,22 +768,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228B091-2207-48C1-992E-2156B4A9E7D9}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,10 +802,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,13 +825,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -765,10 +851,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,10 +874,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -805,10 +897,13 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -825,10 +920,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -845,10 +943,13 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -862,13 +963,16 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -882,13 +986,16 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -905,10 +1012,13 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -925,10 +1035,13 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -945,10 +1058,13 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -962,13 +1078,16 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -985,10 +1104,13 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1005,10 +1127,13 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1025,10 +1150,13 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1045,10 +1173,16 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1065,10 +1199,14 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1085,10 +1223,14 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1105,10 +1247,14 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1125,10 +1271,14 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1145,10 +1295,14 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1162,13 +1316,17 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1182,13 +1340,17 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1202,13 +1364,17 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1222,13 +1388,17 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1242,13 +1412,17 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1262,13 +1436,17 @@
         <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1282,13 +1460,17 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1302,13 +1484,17 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1322,13 +1508,17 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1342,13 +1532,17 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1362,13 +1556,17 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1382,13 +1580,17 @@
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1402,13 +1604,17 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1422,13 +1628,17 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1442,13 +1652,17 @@
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1462,13 +1676,17 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1482,13 +1700,17 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1502,13 +1724,17 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1522,13 +1748,17 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1542,13 +1772,17 @@
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1562,13 +1796,17 @@
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1579,16 +1817,20 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1599,16 +1841,20 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1619,16 +1865,20 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1639,16 +1889,20 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1659,16 +1913,19 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1679,16 +1936,19 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1699,16 +1959,19 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1719,16 +1982,19 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
         <v>64</v>
       </c>
-      <c r="F51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1739,16 +2005,19 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
         <v>65</v>
       </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1759,16 +2028,19 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
         <v>65</v>
       </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1779,16 +2051,19 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
         <v>65</v>
       </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1799,16 +2074,19 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
         <v>65</v>
       </c>
-      <c r="E55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1816,19 +2094,23 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1836,19 +2118,23 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1856,19 +2142,23 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1876,19 +2166,23 @@
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1896,19 +2190,23 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1916,59 +2214,51 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H23:H43"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="H17:H22"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
